--- a/dirt_genetic.xlsx
+++ b/dirt_genetic.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>g=50</t>
+    <t>GA1</t>
   </si>
   <si>
-    <t>g=70</t>
+    <t>GA2</t>
   </si>
   <si>
-    <t>g=100</t>
+    <t>GA3</t>
   </si>
   <si>
-    <t>g=200</t>
+    <t>GA4</t>
   </si>
 </sst>
 </file>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/dirt_genetic.xlsx
+++ b/dirt_genetic.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,832 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>41</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>61</v>
-      </c>
-      <c r="E3">
+      <c r="E6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>63</v>
+      </c>
+      <c r="E37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
